--- a/documentation/gestion/JournalDeBord.xlsx
+++ b/documentation/gestion/JournalDeBord.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">teams </t>
+  </si>
+  <si>
+    <t>teams canevas</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,15 +412,15 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44264</v>
+        <v>44284</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44263</v>
+        <v>44280</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -425,17 +428,33 @@
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44256</v>
+        <v>44264</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>44242</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -449,13 +468,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A4</xm:sqref>
+          <xm:sqref>A6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A3</xm:sqref>
+          <xm:sqref>A2:A5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -477,31 +496,31 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44267</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()-1</f>
-        <v>44266</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">TODAY()-2</f>
-        <v>44265</v>
+        <v>44282</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f ca="1">TODAY()-3</f>
-        <v>44264</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f ca="1">TODAY()-4</f>
-        <v>44263</v>
+        <v>44280</v>
       </c>
     </row>
   </sheetData>
